--- a/input/2_sampling_data.xlsx
+++ b/input/2_sampling_data.xlsx
@@ -8,78 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Santos Finck\Documents\GitHub\Auto-Fill-Word-Form\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E28C2-C497-4032-AF06-308CCCDFF53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F192D626-053B-43A5-B1F6-7AD58F45C91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AMOSTRAGENS" sheetId="1" r:id="rId1"/>
-    <sheet name="OPÇÕES" sheetId="5" r:id="rId2"/>
+    <sheet name="SAMPLING DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="OPTIONS" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="225">
   <si>
     <t>m</t>
   </si>
   <si>
-    <t>ID da Amostra</t>
-  </si>
-  <si>
-    <t>Responsável pela coleta</t>
-  </si>
-  <si>
     <t>FT-14 nº</t>
   </si>
   <si>
-    <t>Temperatura ambiente no momento da coleta</t>
-  </si>
-  <si>
-    <t>Profundidade do poço</t>
-  </si>
-  <si>
-    <t>Condições meteorológicas no momento da coleta</t>
-  </si>
-  <si>
-    <t>Características no interior do poço</t>
-  </si>
-  <si>
-    <t>Características da amostra</t>
-  </si>
-  <si>
-    <t>Método de amostragem</t>
-  </si>
-  <si>
-    <t>Equipamentos utilizados</t>
-  </si>
-  <si>
-    <t>PURGA</t>
-  </si>
-  <si>
-    <t>Hora inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hora final </t>
-  </si>
-  <si>
-    <t>Profundidade de captação (m)</t>
-  </si>
-  <si>
     <t>Volume total (L)</t>
   </si>
   <si>
-    <t>AMOSTRAGEM</t>
-  </si>
-  <si>
     <t>pH</t>
   </si>
   <si>
-    <t>Condutividade (uS/cm)</t>
-  </si>
-  <si>
     <t>ORP (mV)</t>
   </si>
   <si>
@@ -89,39 +44,6 @@
     <t>T (°C)</t>
   </si>
   <si>
-    <t>Vazão (mL/min) PURGA</t>
-  </si>
-  <si>
-    <t>Vazão (mL/min) COLETA</t>
-  </si>
-  <si>
-    <t>Pegar últimos valores medidos</t>
-  </si>
-  <si>
-    <t>Alessandro Ferreira Nascimento</t>
-  </si>
-  <si>
-    <t>Cássio Alexandre Rodrigues Pinheiro</t>
-  </si>
-  <si>
-    <t>Carlos Fabiano Carvalho Rodrigues</t>
-  </si>
-  <si>
-    <t>Luciano Camara Soares</t>
-  </si>
-  <si>
-    <t>Marino Vedovato Mendes</t>
-  </si>
-  <si>
-    <t>Tamir Vargas da Costa</t>
-  </si>
-  <si>
-    <t>Vagner Lopes Leivas</t>
-  </si>
-  <si>
-    <t>FRA-A2S11/PM-132</t>
-  </si>
-  <si>
     <t>02/2021</t>
   </si>
   <si>
@@ -134,45 +56,9 @@
     <t>3,70</t>
   </si>
   <si>
-    <t>Condições meteorológicas</t>
-  </si>
-  <si>
-    <t>Sol</t>
-  </si>
-  <si>
-    <t>Nublado</t>
-  </si>
-  <si>
-    <t>Instável</t>
-  </si>
-  <si>
-    <t>Presença de fase livre LNAPL</t>
-  </si>
-  <si>
-    <t>Presença de fase livre DNAPL</t>
-  </si>
-  <si>
-    <t>Presença de película</t>
-  </si>
-  <si>
-    <t>Presença de iridescência</t>
-  </si>
-  <si>
-    <t>Presença de odor</t>
-  </si>
-  <si>
-    <t>Sem características relevantes</t>
-  </si>
-  <si>
     <t>Odor</t>
   </si>
   <si>
-    <t>Cor</t>
-  </si>
-  <si>
-    <t>Sem observações</t>
-  </si>
-  <si>
     <t>Baixa vazão - ABNT NBR 15.847:2010</t>
   </si>
   <si>
@@ -248,69 +134,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Multiparâmetro: BV-02_mu | Hanna | HI98194</t>
-  </si>
-  <si>
-    <t>Multiparâmetro: Mu_04 | YSI | Professional Plus</t>
-  </si>
-  <si>
-    <t>Multiparâmetro: Mu_05 | YSI | Professional Plus</t>
-  </si>
-  <si>
-    <t>Multiparâmetro: NP01 | Hanna | H198194</t>
-  </si>
-  <si>
-    <t>Turbidímetro: BV-01_tu | Hanna | HI93703</t>
-  </si>
-  <si>
-    <t>Turbidímetro: BV-02_tu | Hanna | HI93703</t>
-  </si>
-  <si>
-    <t>Termômetro: T-01 | Simpla | DT160</t>
-  </si>
-  <si>
-    <t>Termômetro: T-02 | Simpla | DT160</t>
-  </si>
-  <si>
-    <t>Termômetro: T-03 | Simpla | DT160</t>
-  </si>
-  <si>
-    <t>Termômetro: T-04 | Simpla | DT160</t>
-  </si>
-  <si>
-    <t>Medidor de nível d'água: I-10 | Sauber System</t>
-  </si>
-  <si>
-    <t>Medidor de nível d'água: I-11 | Sauber System</t>
-  </si>
-  <si>
-    <t>Medidor de interface: I-08 | Hidro Suprimento | HSIF-30</t>
-  </si>
-  <si>
-    <t>Medidor de interface: I-12 | Solinist | 122</t>
-  </si>
-  <si>
-    <t>Medidor de interface: I-13 | Solinist | 122</t>
-  </si>
-  <si>
-    <t>Medidor de interface: I-14 | Solinist | 122</t>
-  </si>
-  <si>
-    <t>Medidor de interface: I-15 | Solinist | 122</t>
-  </si>
-  <si>
-    <t>Medidor de interface: I-16 | Solinist | 122</t>
-  </si>
-  <si>
-    <t>Medidor de interface: I-17 | Solinist | 122</t>
-  </si>
-  <si>
-    <t>[escolha uma opção]</t>
-  </si>
-  <si>
-    <t>Multiparâmetro: Mu_03 | YSI | Professional Plus</t>
-  </si>
-  <si>
     <t>227/2021</t>
   </si>
   <si>
@@ -329,33 +152,6 @@
     <t>232/2021</t>
   </si>
   <si>
-    <t>FRA-A2S11/PM-133</t>
-  </si>
-  <si>
-    <t>FRA-A2S11/PM-134</t>
-  </si>
-  <si>
-    <t>FRA-A2S11/PM-135</t>
-  </si>
-  <si>
-    <t>FRA-A2S11/PM-136</t>
-  </si>
-  <si>
-    <t>FRA-A2S11/PM-137</t>
-  </si>
-  <si>
-    <t>FRA-A2S11/PM-138</t>
-  </si>
-  <si>
-    <t>FRA-A2S11/PM-139</t>
-  </si>
-  <si>
-    <t>Nível inicial</t>
-  </si>
-  <si>
-    <t>Nível final</t>
-  </si>
-  <si>
     <t>0,89</t>
   </si>
   <si>
@@ -407,60 +203,6 @@
     <t>3,59</t>
   </si>
   <si>
-    <t>Baixa vazão - ABNT NBR 15.847:2011</t>
-  </si>
-  <si>
-    <t>Baixa vazão - ABNT NBR 15.847:2012</t>
-  </si>
-  <si>
-    <t>Baixa vazão - ABNT NBR 15.847:2013</t>
-  </si>
-  <si>
-    <t>Baixa vazão - ABNT NBR 15.847:2014</t>
-  </si>
-  <si>
-    <t>Baixa vazão - ABNT NBR 15.847:2015</t>
-  </si>
-  <si>
-    <t>Baixa vazão - ABNT NBR 15.847:2016</t>
-  </si>
-  <si>
-    <t>Termômetro: T-02 | Simpla | DT161</t>
-  </si>
-  <si>
-    <t>Medidor de interface: I-16 | Solinist | 123</t>
-  </si>
-  <si>
-    <t>Termômetro: T-02 | Simpla | DT162</t>
-  </si>
-  <si>
-    <t>Medidor de interface: I-16 | Solinist | 124</t>
-  </si>
-  <si>
-    <t>Termômetro: T-02 | Simpla | DT163</t>
-  </si>
-  <si>
-    <t>Medidor de interface: I-16 | Solinist | 125</t>
-  </si>
-  <si>
-    <t>Termômetro: T-02 | Simpla | DT164</t>
-  </si>
-  <si>
-    <t>Medidor de interface: I-16 | Solinist | 126</t>
-  </si>
-  <si>
-    <t>Termômetro: T-02 | Simpla | DT165</t>
-  </si>
-  <si>
-    <t>Medidor de interface: I-16 | Solinist | 127</t>
-  </si>
-  <si>
-    <t>Termômetro: T-02 | Simpla | DT166</t>
-  </si>
-  <si>
-    <t>Medidor de interface: I-16 | Solinist | 128</t>
-  </si>
-  <si>
     <t>9h00</t>
   </si>
   <si>
@@ -698,57 +440,6 @@
     <t>24,6</t>
   </si>
   <si>
-    <t>Equipamento 1</t>
-  </si>
-  <si>
-    <t>Equipamento 2</t>
-  </si>
-  <si>
-    <t>Equipamento 3</t>
-  </si>
-  <si>
-    <t>Equipamento 4</t>
-  </si>
-  <si>
-    <t>Hora inicial (PURGA)</t>
-  </si>
-  <si>
-    <t>Hora final  (PURGA)</t>
-  </si>
-  <si>
-    <t>Nível inicial (PURGA)</t>
-  </si>
-  <si>
-    <t>Nível final (PURGA)</t>
-  </si>
-  <si>
-    <t>Profundidade de captação (m) (PURGA)</t>
-  </si>
-  <si>
-    <t>Volume total (L) (PURGA)</t>
-  </si>
-  <si>
-    <t>Hora inicial (AMOSTRAGEM)</t>
-  </si>
-  <si>
-    <t>Hora final (AMOSTRAGEM)</t>
-  </si>
-  <si>
-    <t>Nível inicial (AMOSTRAGEM)</t>
-  </si>
-  <si>
-    <t>Nível final (AMOSTRAGEM)</t>
-  </si>
-  <si>
-    <t>Profundidade de captação (m) (AMOSTRAGEM)</t>
-  </si>
-  <si>
-    <t>Volume total (L) (AMOSTRAGEM)</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>04/01/21</t>
   </si>
   <si>
@@ -758,7 +449,253 @@
     <t>06/01/21</t>
   </si>
   <si>
-    <t>Espessura de óleo?</t>
+    <t>Sample ID</t>
+  </si>
+  <si>
+    <t>Sampling temperature</t>
+  </si>
+  <si>
+    <t>Borehole depth</t>
+  </si>
+  <si>
+    <t>Borehole characteristcs</t>
+  </si>
+  <si>
+    <t>Sample characteristcs</t>
+  </si>
+  <si>
+    <t>Sampling method</t>
+  </si>
+  <si>
+    <t>Equipament 1</t>
+  </si>
+  <si>
+    <t>Equipament 2</t>
+  </si>
+  <si>
+    <t>Equipament 3</t>
+  </si>
+  <si>
+    <t>Equipament 4</t>
+  </si>
+  <si>
+    <t>Equipments used</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finishd at </t>
+  </si>
+  <si>
+    <t>Started at</t>
+  </si>
+  <si>
+    <t>Withdrawal depth (m)</t>
+  </si>
+  <si>
+    <t>SAMPLING</t>
+  </si>
+  <si>
+    <t>Started at (SAMPLING)</t>
+  </si>
+  <si>
+    <t>Finishd at (SAMPLING)</t>
+  </si>
+  <si>
+    <t>Withdrawal depth (m) (SAMPLING)</t>
+  </si>
+  <si>
+    <t>Volume total (L) (SAMPLING)</t>
+  </si>
+  <si>
+    <t>DRAIN</t>
+  </si>
+  <si>
+    <t>Started at (DRAIN)</t>
+  </si>
+  <si>
+    <t>Finishd at  (DRAIN)</t>
+  </si>
+  <si>
+    <t>Withdrawal depth (m) (DRAIN)</t>
+  </si>
+  <si>
+    <t>Volume total (L) (DRAIN)</t>
+  </si>
+  <si>
+    <t>Flow (mL/min) DRAIN</t>
+  </si>
+  <si>
+    <t>Flow (mL/min) SAMPLING</t>
+  </si>
+  <si>
+    <t>Conductivity (uS/cm)</t>
+  </si>
+  <si>
+    <t>Oil thickness?</t>
+  </si>
+  <si>
+    <t>Initial level</t>
+  </si>
+  <si>
+    <t>Initial level (DRAIN)</t>
+  </si>
+  <si>
+    <t>Initial level (SAMPLING)</t>
+  </si>
+  <si>
+    <t>Final level</t>
+  </si>
+  <si>
+    <t>Final level (DRAIN)</t>
+  </si>
+  <si>
+    <t>Final level (SAMPLING)</t>
+  </si>
+  <si>
+    <t>Last measurements</t>
+  </si>
+  <si>
+    <t>Person in charge of sampling</t>
+  </si>
+  <si>
+    <t>Weather conditions</t>
+  </si>
+  <si>
+    <t>[choose an option]</t>
+  </si>
+  <si>
+    <t>Sampling characteristcs</t>
+  </si>
+  <si>
+    <t>Sampler 1</t>
+  </si>
+  <si>
+    <t>Sampler 2</t>
+  </si>
+  <si>
+    <t>Sampler 3</t>
+  </si>
+  <si>
+    <t>Sampler 4</t>
+  </si>
+  <si>
+    <t>Sampler 5</t>
+  </si>
+  <si>
+    <t>Sampler 6</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
+  </si>
+  <si>
+    <t>Unstable</t>
+  </si>
+  <si>
+    <t>LNAPL</t>
+  </si>
+  <si>
+    <t>DNAPL</t>
+  </si>
+  <si>
+    <t>Iridescence</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>No relevant characteristics</t>
+  </si>
+  <si>
+    <t>XXX-A2S11/PM-132</t>
+  </si>
+  <si>
+    <t>XXX-A2S11/PM-133</t>
+  </si>
+  <si>
+    <t>XXX-A2S11/PM-134</t>
+  </si>
+  <si>
+    <t>XXX-A2S11/PM-135</t>
+  </si>
+  <si>
+    <t>XXX-A2S11/PM-136</t>
+  </si>
+  <si>
+    <t>XXX-A2S11/PM-137</t>
+  </si>
+  <si>
+    <t>XXX-A2S11/PM-138</t>
+  </si>
+  <si>
+    <t>XXX-A2S11/PM-139</t>
+  </si>
+  <si>
+    <t>Multiparameter: BV-02_mu | Hanna | HI98194</t>
+  </si>
+  <si>
+    <t>Multiparameter: Mu_03 | YSI | Professional Plus</t>
+  </si>
+  <si>
+    <t>Multiparameter: Mu_04 | YSI | Professional Plus</t>
+  </si>
+  <si>
+    <t>Multiparameter: Mu_05 | YSI | Professional Plus</t>
+  </si>
+  <si>
+    <t>Multiparameter: NP01 | Hanna | H198194</t>
+  </si>
+  <si>
+    <t>Turbidimeter: BV-01_tu | Hanna | HI93703</t>
+  </si>
+  <si>
+    <t>Turbidimeter: BV-02_tu | Hanna | HI93703</t>
+  </si>
+  <si>
+    <t>Thermometer: T-01 | Simpla | DT160</t>
+  </si>
+  <si>
+    <t>Thermometer: T-02 | Simpla | DT160</t>
+  </si>
+  <si>
+    <t>Thermometer: T-03 | Simpla | DT160</t>
+  </si>
+  <si>
+    <t>Thermometer: T-04 | Simpla | DT160</t>
+  </si>
+  <si>
+    <t>Water level sensor: I-10 | Sauber System</t>
+  </si>
+  <si>
+    <t>Water level sensor: I-11 | Sauber System</t>
+  </si>
+  <si>
+    <t>Interface sensor: I-08 | Hidro Suprimento | HSIF-30</t>
+  </si>
+  <si>
+    <t>Interface sensor: I-12 | Solinist | 122</t>
+  </si>
+  <si>
+    <t>Interface sensor: I-13 | Solinist | 122</t>
+  </si>
+  <si>
+    <t>Interface sensor: I-14 | Solinist | 122</t>
+  </si>
+  <si>
+    <t>Interface sensor: I-15 | Solinist | 122</t>
+  </si>
+  <si>
+    <t>Interface sensor: I-16 | Solinist | 122</t>
+  </si>
+  <si>
+    <t>Interface sensor: I-17 | Solinist | 122</t>
+  </si>
+  <si>
+    <t>Film presence</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1202,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1298,6 +1235,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1656,120 +1599,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
     <col min="11" max="14" width="42.85546875" style="2" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="7.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="16.5703125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" style="2" customWidth="1"/>
-    <col min="22" max="24" width="7.140625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.140625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="16.5703125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" style="2" customWidth="1"/>
-    <col min="29" max="31" width="9.140625" style="2"/>
+    <col min="16" max="17" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="2"/>
     <col min="32" max="32" width="14.28515625" style="2" customWidth="1"/>
     <col min="33" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -1779,1013 +1725,1013 @@
       <c r="N2" s="5"/>
       <c r="O2" s="8"/>
       <c r="P2" s="12" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
     </row>
     <row r="3" spans="1:35" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>9</v>
+      <c r="E3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="Y3" s="11"/>
       <c r="Z3" s="7" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="Y4" s="13">
         <v>0</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="O5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="R5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="V5" s="2" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="Y5" s="13">
         <v>0.2</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="Y6" s="13">
         <v>0.2</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="T7" s="2" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="Y7" s="13">
         <v>0.2</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="Y8" s="13">
         <v>0.2</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="V9" s="2" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="Y9" s="13">
         <v>0.2</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>244</v>
+        <v>141</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="Y10" s="13">
         <v>0.2</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>210</v>
+        <v>124</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="M11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="X11" s="2" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="Y11" s="13">
         <v>0.2</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>224</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -2806,37 +2752,37 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>OPÇÕES!$B$1:$I$1</xm:f>
+            <xm:f>OPTIONS!$B$1:$I$1</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>OPÇÕES!$C$2:$E$2</xm:f>
+            <xm:f>OPTIONS!$C$2:$E$2</xm:f>
           </x14:formula1>
           <xm:sqref>G4:G11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
-            <xm:f>OPÇÕES!$B$3:$H$3</xm:f>
+            <xm:f>OPTIONS!$B$3:$H$3</xm:f>
           </x14:formula1>
           <xm:sqref>H4:H11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
-            <xm:f>OPÇÕES!$B$4:$F$4</xm:f>
+            <xm:f>OPTIONS!$B$4:$F$4</xm:f>
           </x14:formula1>
           <xm:sqref>I4:I11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
-            <xm:f>OPÇÕES!$B$5:$I$5</xm:f>
+            <xm:f>OPTIONS!$B$5:$I$5</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
-            <xm:f>OPÇÕES!$B$6:$X$6</xm:f>
+            <xm:f>OPTIONS!$B$6:$X$6</xm:f>
           </x14:formula1>
           <xm:sqref>K4:N11</xm:sqref>
         </x14:dataValidation>
@@ -2850,205 +2796,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="21.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="16" customWidth="1"/>
+    <col min="7" max="23" width="21.28515625" style="16" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="16"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
+    <row r="1" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
+    <row r="2" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
+    <row r="3" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
+    <row r="4" spans="1:24" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" t="s">
-        <v>56</v>
+    <row r="5" spans="1:24" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>88</v>
-      </c>
-      <c r="R6" t="s">
-        <v>89</v>
-      </c>
-      <c r="S6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T6" t="s">
-        <v>91</v>
-      </c>
-      <c r="U6" t="s">
-        <v>92</v>
-      </c>
-      <c r="V6" t="s">
-        <v>93</v>
-      </c>
-      <c r="W6" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" t="s">
-        <v>74</v>
+    <row r="6" spans="1:24" s="14" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
